--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfDeparment.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfDeparment.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F775DE4-54A2-442B-9F39-1FDD64B3898E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -148,198 +147,198 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">DeptCode= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptCode= , AND DistCode=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByDeptCodeAndDistCodeAndUnitCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByDeptCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByUnitCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitCode=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByDistCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistCode=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByDeptCodeAndUnitCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByDeptCodeAndDistCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByDistCodeAndUnitCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptCode= , AND UnitCode=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistCode= , AND UnitCode=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitItem</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistItem</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptItem</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirectorCode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpNo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpName</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepartOfficer</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoalCnt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SumGoalCnt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoalAmt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SumGoalAmt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptCode= , AND DistCode= , AND UnitCode=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PfDeparment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位代號</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>區部代號</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>部室代號</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工代號</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位中文</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>區部中文</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>部室中文</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工姓名</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>專員姓名</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>目標件數</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>累計目標件數</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>目標金額</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>累計目標金額</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>v、 、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v、v、v</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v、v、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptCode,DistCode,UnitCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistCode,DeptCode,UnitCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>UnitCode</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>DistCode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>DeptCode</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DeptCode= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptCode= , AND DistCode=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByDeptCodeAndDistCodeAndUnitCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByDeptCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByUnitCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitCode=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByDistCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistCode=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByDeptCodeAndUnitCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByDeptCodeAndDistCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByDistCodeAndUnitCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptCode= , AND UnitCode=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistCode= , AND UnitCode=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitItem</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistItem</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptItem</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DirectorCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmpName</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DepartOfficer</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoalCnt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>SumGoalCnt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoalAmt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>SumGoalAmt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptCode= , AND DistCode= , AND UnitCode=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PfDeparment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位代號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>區部代號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>部室代號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工代號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位中文</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>區部中文</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>部室中文</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工姓名</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>專員姓名</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>目標件數</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>累計目標件數</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>目標金額</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>累計目標金額</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>v、 、</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v、v、v</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v、v、</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptCode,DistCode,UnitCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistCode,DeptCode,UnitCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11">
     <font>
       <sz val="12"/>
@@ -592,7 +591,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -683,23 +682,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -735,23 +717,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -927,11 +892,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -951,7 +916,7 @@
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -979,7 +944,7 @@
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1060,10 +1025,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>28</v>
@@ -1072,7 +1037,7 @@
         <v>6</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1080,10 +1045,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>28</v>
@@ -1092,7 +1057,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1100,10 +1065,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>28</v>
@@ -1112,7 +1077,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1120,10 +1085,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>28</v>
@@ -1137,10 +1102,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>21</v>
@@ -1154,10 +1119,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>21</v>
@@ -1171,10 +1136,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>21</v>
@@ -1188,7 +1153,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>20</v>
@@ -1205,10 +1170,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>21</v>
@@ -1222,10 +1187,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>21</v>
@@ -1239,10 +1204,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>22</v>
@@ -1256,10 +1221,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>22</v>
@@ -1273,10 +1238,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>22</v>
@@ -1293,10 +1258,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>22</v>
@@ -1389,7 +1354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1418,79 +1383,79 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfDeparment.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfDeparment.xlsx
@@ -91,248 +91,248 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>處長主任別</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>建檔日期時間</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateEmpNo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>建檔人員</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後更新日期時間</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdateEmpNo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後更新人員</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DeptCode= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptCode= , AND DistCode=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByDeptCodeAndDistCodeAndUnitCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByDeptCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByUnitCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitCode=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByDistCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistCode=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByDeptCodeAndUnitCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByDeptCodeAndDistCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByDistCodeAndUnitCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptCode= , AND UnitCode=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistCode= , AND UnitCode=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitItem</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistItem</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptItem</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirectorCode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpNo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpName</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepartOfficer</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoalCnt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SumGoalCnt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoalAmt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SumGoalAmt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptCode= , AND DistCode= , AND UnitCode=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PfDeparment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位代號</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>區部代號</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>部室代號</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工代號</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位中文</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>區部中文</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>部室中文</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工姓名</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>專員姓名</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>目標件數</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>累計目標件數</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>目標金額</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>累計目標金額</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>v、 、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v、v、v</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v、v、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptCode,DistCode,UnitCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistCode,DeptCode,UnitCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitCode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistCode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptCode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>單位、區部、部室業績目標檔</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>處長主任別</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>建檔日期時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>建檔人員</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後更新日期時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後更新人員</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DeptCode= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptCode= , AND DistCode=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByDeptCodeAndDistCodeAndUnitCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByDeptCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByUnitCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitCode=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByDistCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistCode=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByDeptCodeAndUnitCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByDeptCodeAndDistCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByDistCodeAndUnitCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptCode= , AND UnitCode=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistCode= , AND UnitCode=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitItem</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistItem</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptItem</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DirectorCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmpName</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DepartOfficer</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoalCnt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>SumGoalCnt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoalAmt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>SumGoalAmt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptCode= , AND DistCode= , AND UnitCode=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PfDeparment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位代號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>區部代號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>部室代號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工代號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位中文</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>區部中文</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>部室中文</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工姓名</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>專員姓名</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>目標件數</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>累計目標件數</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>目標金額</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>累計目標金額</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>v、 、</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v、v、v</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v、v、</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptCode,DistCode,UnitCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistCode,DeptCode,UnitCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -896,7 +896,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -916,10 +916,10 @@
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -944,7 +944,7 @@
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1025,19 +1025,19 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="22">
         <v>6</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1045,19 +1045,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="22">
         <v>6</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1065,19 +1065,19 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="22">
         <v>6</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1085,13 +1085,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="22">
         <v>6</v>
@@ -1102,13 +1102,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="22">
         <v>20</v>
@@ -1119,13 +1119,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="22">
         <v>20</v>
@@ -1136,13 +1136,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="22">
         <v>20</v>
@@ -1153,13 +1153,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="22">
         <v>1</v>
@@ -1170,13 +1170,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="22">
         <v>8</v>
@@ -1187,13 +1187,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="22">
         <v>8</v>
@@ -1204,13 +1204,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="22">
         <v>4</v>
@@ -1221,13 +1221,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="22">
         <v>16</v>
@@ -1238,13 +1238,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" s="22">
         <v>16</v>
@@ -1258,13 +1258,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="22">
         <v>16</v>
@@ -1278,13 +1278,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="D23" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>25</v>
       </c>
       <c r="E23" s="22"/>
     </row>
@@ -1293,13 +1293,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="D24" s="20" t="s">
         <v>27</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>28</v>
       </c>
       <c r="E24" s="22">
         <v>6</v>
@@ -1310,13 +1310,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="D25" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="22"/>
     </row>
@@ -1325,13 +1325,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>32</v>
-      </c>
       <c r="D26" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="22">
         <v>6</v>
@@ -1383,79 +1383,79 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
